--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dc01\Usuarios\PowerBI\flastra\Documents\dassa_operativo_stream\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -372,8 +367,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,7 +379,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -433,14 +431,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -728,16 +718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,903 +733,903 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8613377417521203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8378771806927237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.89492991368045371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8705543907397406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.92983218031399417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9045060119785931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.96051664226435585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9343547103738866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.02006867408474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9922847024170618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.0628442338638151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.033895169128224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.095535394730877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.065695909271281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.1179585443246121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.087508311599817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.120216976369028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.08970522993096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.133089222967306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.102226870590764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.159823182777717</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.128232668071709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.178594486518233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.146492691165596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.192708156692869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.160221942308238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.2116233153498539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.178621902091297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.2366701866404031</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.202986562879769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.2660310833337141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.231547746433574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.2996547189790379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.264255563209181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.318301518300784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.282394473055237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.334016640973364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.297681557367085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.3571253615092911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.32016085749931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.376169332647198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.338686121252138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.402289641278788</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.364094981788704</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.4235305808413281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.384757374359268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.443105307108965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.403798936876425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.488447300393807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.44790593423522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.5146045829782251</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.473350761651969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.551243384843678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.508991619497741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.587558962798665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.544318057197144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.631042716775372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.586617428769816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.664892966970476</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.61954568771447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.727104624423569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.680062864225261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.780672725865116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.732171912320151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.849930903107968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.799543680066116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.970810682080617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.917131013697098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.07706905176039</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.020495186537344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.1425666201851792</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.084208774499201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.197626799530751</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.137769260243921</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.2614951286134919</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.199897985032579</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.3466544910013591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.282737831713384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.4564671309880768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.389559465941708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.5410850038728081</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.471872571860708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.6188185652771119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.547488876728707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.689998195360392</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.616729762023727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.7491207386876448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.674241963703934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.8578205819641682</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.779981110860085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>3.0260222497617848</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.943601410274109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3.125683750626882</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.040548395551441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3.2586671319736582</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.169909661452974</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.3806620930728268</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.288581802600025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.4568248578347638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.362670095170003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.5264324985675199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.430381807945058</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.6443376633973932</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.545075548051938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.6988778219866418</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.598130177029806</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.755941751035464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.65363983563761</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.84020777501398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.735610676083638</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.9144848681801729</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.807864657762813</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>4.0201802796099741</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.910681205846277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
-        <v>4.1341733616859013</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.021569417982393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
-        <v>4.2896583751168498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.172819431047518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.4251989227515844</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.304668212793369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.6024532454585039</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.477094596749517</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.7888079314009726</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.658373474125459</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.9599901768821626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.824893168173309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5.1986057561264483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.057009490395378</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5.4107241309616514</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.263350321947132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5.5905213074586264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.438250299084267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.7679950884663693</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.610890163877791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.9408638232811164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.779050411752059</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
-        <v>6.0875132546872956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.921705500668576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6.3034244414607752</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.131735837996864</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6.5250701690516406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.347344522423775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6.6901195091911063</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.507898355244267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.947018111769335</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.757799719619976</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>7.2162624364775008</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.019710541320526</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.5550201779740327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.349241418262678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8.0633822120604499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.843757015623006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.551000665885665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.318094032962708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.9828457008876246</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.738176751836209</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80">
-        <v>9.4585072554419476</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.200882544204228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81">
-        <v>10.15902292252877</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.882318018024096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82">
-        <v>10.867140911406221</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.57114874650411</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11.537156645509871</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11.22291502481505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84">
-        <v>12.269460370388879</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11.93527273384132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.87264508834871</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12.52202829605906</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86">
-        <v>13.53231765731767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.16373312968645</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87">
-        <v>14.34802865630224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.95722631936016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>15.29897606234158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.88227243418442</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89">
-        <v>16.47320916968722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16.02452253860625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90">
-        <v>17.857401850104559</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17.37101347286436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91">
-        <v>19.250279194412769</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18.72595252374783</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>20.405295946077519</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19.84950967517268</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93">
-        <v>21.69082959068043</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21.10002878470859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94">
-        <v>24.38049245992482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23.71643235401247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="B95">
-        <v>27.47681500233519</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26.72841926297197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96">
-        <v>29.75739064752911</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28.94687806179874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>33.566336650412822</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+        <v>32.65207845370896</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98">
-        <v>42.125752496268113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40.97835845940477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="B99">
-        <v>50.803657510499221</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49.41990030204203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="B100">
-        <v>57.509740301885181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55.94332714191164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
       <c r="B101">
-        <v>63.835811735092513</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62.09709312752189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="B102">
-        <v>69.453363167780708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67.56163732274386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
       <c r="B103">
-        <v>72.370404420827512</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70.39922609029912</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104">
-        <v>75.69944302418557</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73.63759049045287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
       <c r="B105">
-        <v>78.727420745152955</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76.58309411007095</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="B106">
-        <v>82.191427257939708</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79.95275025091409</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107">
-        <v>85.068127211967607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82.7510965096961</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="B108">
-        <v>87.790307282750604</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85.39913159800641</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="B109">
-        <v>89.897274657536556</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87.44871075635851</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="B110">
-        <v>92.144706523974961</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.63492852526747</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="B111">
-        <v>94.171890067502417</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91.60689695282335</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
       <c r="B112">
-        <v>96.432015429122472</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93.80546247969112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
       <c r="B113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97.27626459143968</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -1649,7 +1637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -1658,6 +1646,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8378771806927237</v>
+        <v>0.8254947593031765</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.8705543907397406</v>
+        <v>0.857689054916001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.9045060119785931</v>
+        <v>0.8911389280577277</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -762,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.9343547103738866</v>
+        <v>0.9205465126836326</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9922847024170618</v>
+        <v>0.9776203964700122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -778,7 +778,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.033895169128224</v>
+        <v>1.018615930175591</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.065695909271281</v>
+        <v>1.049946708641657</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.087508311599817</v>
+        <v>1.071436760196865</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -802,7 +802,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.08970522993096</v>
+        <v>1.073601211754641</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -810,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.102226870590764</v>
+        <v>1.085937803537699</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -818,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.128232668071709</v>
+        <v>1.111559278888384</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -826,7 +826,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.146492691165596</v>
+        <v>1.129549449424233</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.160221942308238</v>
+        <v>1.143075805229792</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -842,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.178621902091297</v>
+        <v>1.161203844424924</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -850,7 +850,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.202986562879769</v>
+        <v>1.185208436334748</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -858,7 +858,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.231547746433574</v>
+        <v>1.213347533432093</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -866,7 +866,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.264255563209181</v>
+        <v>1.245571983457322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -874,7 +874,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.282394473055237</v>
+        <v>1.263442830596293</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -882,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.297681557367085</v>
+        <v>1.278503997405996</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -890,7 +890,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.32016085749931</v>
+        <v>1.300651091132326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -898,7 +898,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.338686121252138</v>
+        <v>1.318902582514422</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.364094981788704</v>
+        <v>1.34393594264897</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.384757374359268</v>
+        <v>1.364292979664304</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -922,7 +922,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.403798936876425</v>
+        <v>1.383053139779729</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -930,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.44790593423522</v>
+        <v>1.42650830959135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -938,7 +938,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.473350761651969</v>
+        <v>1.451577105075831</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -946,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.508991619497741</v>
+        <v>1.486691250736691</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -954,7 +954,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.544318057197144</v>
+        <v>1.521495622854329</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -962,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.586617428769816</v>
+        <v>1.563169880561395</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -970,7 +970,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.61954568771447</v>
+        <v>1.595611514989626</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -978,7 +978,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.680062864225261</v>
+        <v>1.655234348990405</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -986,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.732171912320151</v>
+        <v>1.70657331263069</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -994,7 +994,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.799543680066116</v>
+        <v>1.772949438488784</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1002,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.917131013697098</v>
+        <v>1.888799028273002</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1010,7 +1010,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.020495186537344</v>
+        <v>1.990635651760929</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1018,7 +1018,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.084208774499201</v>
+        <v>2.053407659605123</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1026,7 +1026,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.137769260243921</v>
+        <v>2.106176611077754</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.199897985032579</v>
+        <v>2.167387177371998</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1042,7 +1042,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.282737831713384</v>
+        <v>2.249002789865402</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.389559465941708</v>
+        <v>2.354245779252913</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1058,7 +1058,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.471872571860708</v>
+        <v>2.435342435330746</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1066,7 +1066,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.547488876728707</v>
+        <v>2.509841257860794</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1074,7 +1074,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.616729762023727</v>
+        <v>2.57805887884111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1082,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.674241963703934</v>
+        <v>2.634721146506338</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1090,7 +1090,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.779981110860085</v>
+        <v>2.73889764616757</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1098,7 +1098,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.943601410274109</v>
+        <v>2.900099911600106</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1106,7 +1106,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>3.040548395551441</v>
+        <v>2.9956141828093</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1114,7 +1114,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3.169909661452974</v>
+        <v>3.123063705864998</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1122,7 +1122,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.288581802600025</v>
+        <v>3.239982071527117</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1130,7 +1130,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.362670095170003</v>
+        <v>3.312975463221677</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1138,7 +1138,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.430381807945058</v>
+        <v>3.379686510290697</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1146,7 +1146,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.545075548051938</v>
+        <v>3.492685269016687</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.598130177029806</v>
+        <v>3.544955839438232</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.65363983563761</v>
+        <v>3.599645158263654</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.735610676083638</v>
+        <v>3.680404606978953</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.807864657762813</v>
+        <v>3.751590795825432</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.910681205846277</v>
+        <v>3.852887887533277</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>4.021569417982393</v>
+        <v>3.962137357618121</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>4.172819431047518</v>
+        <v>4.111152148815289</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.304668212793369</v>
+        <v>4.241052426397408</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.477094596749517</v>
+        <v>4.410930637191642</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.658373474125459</v>
+        <v>4.589530516379762</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.824893168173309</v>
+        <v>4.753589328249565</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5.057009490395378</v>
+        <v>4.982275359995445</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5.263350321947132</v>
+        <v>5.185566819652345</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5.438250299084267</v>
+        <v>5.357882068063315</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.610890163877791</v>
+        <v>5.527970604805703</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.779050411752059</v>
+        <v>5.693645725864095</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>5.921705500668576</v>
+        <v>5.834192611496132</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6.131735837996864</v>
+        <v>6.041119052213657</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6.347344522423775</v>
+        <v>6.253541401402732</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6.507898355244267</v>
+        <v>6.411722517482034</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.757799719619976</v>
+        <v>6.657930758246279</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>7.019710541320526</v>
+        <v>6.915970976670467</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.349241418262678</v>
+        <v>7.24063193917505</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.843757015623006</v>
+        <v>7.727839424259117</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.318094032962708</v>
+        <v>8.195166534938627</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.738176751836209</v>
+        <v>8.609041134813998</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>9.200882544204228</v>
+        <v>9.064908910546036</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>9.882318018024096</v>
+        <v>9.736273909383343</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>10.57114874650411</v>
+        <v>10.41492487340306</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11.22291502481505</v>
+        <v>11.05705913774882</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>11.93527273384132</v>
+        <v>11.75888939294711</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.52202829605906</v>
+        <v>12.33697369069858</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>13.16373312968645</v>
+        <v>12.96919520166152</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>13.95722631936016</v>
+        <v>13.75096189099523</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>14.88227243418442</v>
+        <v>14.66233737358071</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>16.02452253860625</v>
+        <v>15.78770693458744</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>17.37101347286436</v>
+        <v>17.1142989880437</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>18.72595252374783</v>
+        <v>18.44921430911116</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>19.84950967517268</v>
+        <v>19.55616716765781</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>21.10002878470859</v>
+        <v>20.78820569922028</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>23.71643235401247</v>
+        <v>23.36594320592361</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>26.72841926297197</v>
+        <v>26.33341799307583</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>28.94687806179874</v>
+        <v>28.51909168650121</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>32.65207845370896</v>
+        <v>32.16953542237335</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>40.97835845940477</v>
+        <v>40.37276695507858</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>49.41990030204203</v>
+        <v>48.68955694782465</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>55.94332714191164</v>
+        <v>55.11657846493756</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>62.09709312752189</v>
+        <v>61.17940209608066</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>67.56163732274386</v>
+        <v>66.56318948053581</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>70.39922609029912</v>
+        <v>69.35884343871834</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>73.63759049045287</v>
+        <v>72.54935023689937</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>76.58309411007095</v>
+        <v>75.45132424637532</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>79.95275025091409</v>
+        <v>78.77118251321586</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>82.7510965096961</v>
+        <v>81.52817390117843</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>85.39913159800641</v>
+        <v>84.13707546601619</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>87.44871075635851</v>
+        <v>86.15636527720052</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>89.63492852526747</v>
+        <v>88.31027440913053</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>91.60689695282335</v>
+        <v>90.2531004461314</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>93.80546247969112</v>
+        <v>92.41917485683855</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>97.27626459143968</v>
+        <v>95.83868432654157</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>100</v>
+        <v>98.52216748768474</v>
       </c>
     </row>
     <row r="115" spans="1:2">

--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dc01\Usuarios\PowerBI\flastra\Documents\dassa_operativo_stream\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,8 +385,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,32 +438,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -510,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,10 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,7 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -753,16 +736,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,961 +751,960 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.82549475930317651</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.7973452814856088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.857689054916001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8284417474635482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.89113892805772765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.860750975614629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.92054651268363263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.8891557578099116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9776203964700122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9442834147941207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.018615930175591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.9838809955101029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.049946708641657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.01414339038742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.0714367601968651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.034900628411428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.073601211754641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.036991271891774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.085937803537699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.048907184303063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.1115592788883839</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.073654964037987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.1295494494242331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.091031667437036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.143075805229792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.104096772764127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.161203844424924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.121606643483386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.1852084363347479</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.144792675711431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.2133475334320929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.171972225966569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.245571983457322</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.203097818087559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.263442830596293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.220359267032962</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.278503997405996</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.234906846110897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.3006510911323259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.256298721083205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.3189025825144221</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.273927834253921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.3439359426489701</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.298107553577471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.364292979664304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.317770413003624</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.383053139779729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.335890849238222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.42650830959135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.377864192151629</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.451577105075831</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.402078138475107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.486691250736691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.435994887237653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.521495622854329</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.469612425774777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.5631698805613949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.50986558591621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.5956115149896259</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.541200956424032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.6552343489904049</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.598790644091402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.7065733126306899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.648378942446557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.7729494384887841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.712491633847435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.8887990282730021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.82439073767029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.9906356517609289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.922754719155852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.0534076596051229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.983386193432193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.1061766110777538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.034355716850079</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.1673871773719982</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.09347899493482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.2490027898654019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.172311504510174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.354245779252913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.273965694378572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.435342435330746</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.352296944019096</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.5098412578607938</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.424255347087226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.5780588788411101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.490146738389024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.634721146506338</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.54487681541493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.7388976461675698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.645500882994338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.9000999116001061</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.801206130373404</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.9956141828092999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.893463352608799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3.1230637058649982</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.016566830481673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.239982071527117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.129498264787074</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.3129754632216768</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.200002572405475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.3796865102906972</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.264438764160766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.492685269016687</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.373584250632363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.5449558394382321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.424072387857318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.5996451582636539</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.476896793853451</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.6804046069789531</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.55490233494602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.751590795825432</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.623661065566667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.852887887533277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.72150391337547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3.9621373576181211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.827027962432409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
-        <v>4.1111521488152887</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.970961330020254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.2410524263974079</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.096431991373943</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.4109306371916421</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.260517333258291</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.5895305163797619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.433026933518814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.7535893282495651</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.591491318733016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4.9822753599954446</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.81237912728575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5.1855668196523448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.008738321934761</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5.357882068063315</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.17517759813863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.5279706048057031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.339466093829159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.6936457258640951</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.499491671880043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
-        <v>5.8341926114961318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.635245890575264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71">
-        <v>6.0411190522136566</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5.835116112961659</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6.2535414014027317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.04029483263151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6.4117225174820343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.193081952240149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.6579307582462786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.430894460222581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.9159709766704669</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.680135473899906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.2406319391750502</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.993725455687462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.7278394242591171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.46431910265885</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.1951665349386271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.915710298558325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.6090411348139977</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.315471721169819</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
       <c r="B80">
-        <v>9.0649089105460359</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.755794346922293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>81</v>
       </c>
       <c r="B81">
-        <v>9.7362739093833426</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9.404265712663474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>82</v>
       </c>
       <c r="B82">
-        <v>10.414924873403059</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.05977459123413</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>83</v>
       </c>
       <c r="B83">
-        <v>11.057059137748819</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.68001199430199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>84</v>
       </c>
       <c r="B84">
-        <v>11.758889392947109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11.35790974723088</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12.33697369069858</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11.91628129583058</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.96919520166152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12.52694397168515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>87</v>
       </c>
       <c r="B87">
-        <v>13.75096189099523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13.28205231603011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>14.66233737358071</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14.16234977705168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>89</v>
       </c>
       <c r="B89">
-        <v>15.78770693458744</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15.24934409080565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90">
-        <v>17.1142989880437</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16.53069918405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>91</v>
       </c>
       <c r="B91">
-        <v>18.449214309111159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17.82009372040595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>19.556167167657811</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18.8892993436303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>93</v>
       </c>
       <c r="B93">
-        <v>20.788205699220281</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20.07932520227903</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>94</v>
       </c>
       <c r="B94">
-        <v>23.36594320592361</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22.56916152736165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>95</v>
       </c>
       <c r="B95">
-        <v>26.33341799307583</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25.4354450413365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96">
-        <v>28.519091686501209</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27.54658697976751</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>32.16953542237335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31.07255011317773</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98">
-        <v>40.372766955078582</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38.99605039203808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="B99">
-        <v>48.689556947824649</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47.02923677279782</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="B100">
-        <v>55.116578464937561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53.23709602680719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>101</v>
       </c>
       <c r="B101">
-        <v>61.179402096080658</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.09317658975595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
       <c r="B102">
-        <v>66.563189480535812</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64.29337612965453</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>103</v>
       </c>
       <c r="B103">
-        <v>69.358843438718338</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66.99369792710004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>104</v>
       </c>
       <c r="B104">
-        <v>72.549350236899372</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70.07540803174663</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>105</v>
       </c>
       <c r="B105">
-        <v>75.451324246375322</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72.87842435301647</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>106</v>
       </c>
       <c r="B106">
-        <v>78.771182513215862</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76.08507502454921</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>107</v>
       </c>
       <c r="B107">
-        <v>81.528173901178434</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78.74805265040844</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>108</v>
       </c>
       <c r="B108">
-        <v>84.137075466016185</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81.26799033522154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>109</v>
       </c>
       <c r="B109">
-        <v>86.156365277200521</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83.2184221032668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>110</v>
       </c>
       <c r="B110">
-        <v>88.310274409130528</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85.29888265584846</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>111</v>
       </c>
       <c r="B111">
-        <v>90.253100446131398</v>
-      </c>
-      <c r="E111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87.17545807427713</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>112</v>
       </c>
       <c r="B112">
-        <v>92.419174856838552</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89.26766906805979</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
       <c r="B113">
-        <v>95.838684326541568</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92.57057282357799</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
       <c r="B114">
-        <v>98.52216748768474</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95.16254886263818</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
       <c r="B115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+        <v>96.58998709557774</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>116</v>
       </c>
       <c r="B116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+        <v>98.13542688910698</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>117</v>
       </c>
       <c r="B117">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>118</v>
       </c>
       <c r="B118">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>119</v>
       </c>
       <c r="B119">
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>120</v>
       </c>
       <c r="B120">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>121</v>
       </c>
       <c r="B121">

--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7973452814856088</v>
+        <v>0.7824781957660532</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.8284417474635482</v>
+        <v>0.8129948454009298</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.860750975614629</v>
+        <v>0.8447016443715686</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.8891557578099116</v>
+        <v>0.8725767986358303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9442834147941207</v>
+        <v>0.9266765601512463</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.9838809955101029</v>
+        <v>0.9655358150246341</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.01414339038742</v>
+        <v>0.9952339454243565</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.034900628411428</v>
+        <v>1.015604149569605</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.036991271891774</v>
+        <v>1.017655811473772</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.048907184303063</v>
+        <v>1.029349542986322</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.073654964037987</v>
+        <v>1.053635882274766</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.091031667437036</v>
+        <v>1.070688584334677</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.104096772764127</v>
+        <v>1.083510081220929</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.121606643483386</v>
+        <v>1.100693467599004</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.144792675711431</v>
+        <v>1.123447179304642</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.171972225966569</v>
+        <v>1.150119946974061</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -884,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.203097818087559</v>
+        <v>1.180665179673757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.220359267032962</v>
+        <v>1.197604776283574</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -900,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.234906846110897</v>
+        <v>1.211881105113736</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.256298721083205</v>
+        <v>1.232874112937394</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.273927834253921</v>
+        <v>1.25017451840424</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -924,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.298107553577471</v>
+        <v>1.273903389182994</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.317770413003624</v>
+        <v>1.293199620219454</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -940,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.335890849238222</v>
+        <v>1.310982187672445</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.377864192151629</v>
+        <v>1.352172906920146</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.402078138475107</v>
+        <v>1.37593536651139</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.435994887237653</v>
+        <v>1.409219712696421</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -972,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.469612425774777</v>
+        <v>1.442210427649437</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -980,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.50986558591621</v>
+        <v>1.481713038190589</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.541200956424032</v>
+        <v>1.512464137805723</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.598790644091402</v>
+        <v>1.5689800236422</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.648378942446557</v>
+        <v>1.617643711920075</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.712491633847435</v>
+        <v>1.680560975316423</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.82439073767029</v>
+        <v>1.790373638538067</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.922754719155852</v>
+        <v>1.886903551674045</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.983386193432193</v>
+        <v>1.946404507784291</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.034355716850079</v>
+        <v>1.996423667173777</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.09347899493482</v>
+        <v>2.054444548513072</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.172311504510174</v>
+        <v>2.131807168312242</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.273965694378572</v>
+        <v>2.231565941490257</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.352296944019096</v>
+        <v>2.308436647712558</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.424255347087226</v>
+        <v>2.379053333746051</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.490146738389024</v>
+        <v>2.443716131883242</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.54487681541493</v>
+        <v>2.497425726609352</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.645500882994338</v>
+        <v>2.596173584881587</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.801206130373404</v>
+        <v>2.748975594085774</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.893463352608799</v>
+        <v>2.839512612962511</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3.016566830481673</v>
+        <v>2.960320736488393</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.129498264787074</v>
+        <v>3.071146481635989</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.200002572405475</v>
+        <v>3.140336184892516</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.264438764160766</v>
+        <v>3.203570916742654</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.373584250632363</v>
+        <v>3.310681305821749</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.424072387857318</v>
+        <v>3.360228054815816</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.476896793853451</v>
+        <v>3.412067511141756</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.55490233494602</v>
+        <v>3.488618581890107</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.623661065566667</v>
+        <v>3.55609525570821</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.72150391337547</v>
+        <v>3.652113752085838</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3.827027962432409</v>
+        <v>3.755670228098535</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.970961330020254</v>
+        <v>3.896919852816735</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.096431991373943</v>
+        <v>4.020051021956763</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.260517333258291</v>
+        <v>4.181076872677418</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.433026933518814</v>
+        <v>4.350369905317774</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.591491318733016</v>
+        <v>4.505879606214931</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4.81237912728575</v>
+        <v>4.72264880008415</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>5.008738321934761</v>
+        <v>4.915346733988969</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5.17517759813863</v>
+        <v>5.078682628202776</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.339466093829159</v>
+        <v>5.23990784477837</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.499491671880043</v>
+        <v>5.396949628930365</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>5.635245890575264</v>
+        <v>5.530172610966892</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5.835116112961659</v>
+        <v>5.726316106929988</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>6.04029483263151</v>
+        <v>5.927669119363601</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6.193081952240149</v>
+        <v>6.077607411423109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.430894460222581</v>
+        <v>6.310985731327361</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.680135473899906</v>
+        <v>6.55557946408234</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6.993725455687462</v>
+        <v>6.863322331391032</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.46431910265885</v>
+        <v>7.32514141575942</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.915710298558325</v>
+        <v>7.768116092795215</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.315471721169819</v>
+        <v>8.160423671412971</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>8.755794346922293</v>
+        <v>8.592536159884485</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>9.404265712663474</v>
+        <v>9.228916302908216</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>10.05977459123413</v>
+        <v>9.872202739189525</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>10.68001199430199</v>
+        <v>10.48087536241608</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>11.35790974723088</v>
+        <v>11.14613321612451</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>11.91628129583058</v>
+        <v>11.69409351897014</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.52694397168515</v>
+        <v>12.29336994277247</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>13.28205231603011</v>
+        <v>13.03439873997066</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>14.16234977705168</v>
+        <v>13.89828241123815</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>15.24934409080565</v>
+        <v>14.96500892130093</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>16.53069918405</v>
+        <v>16.22247221202159</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17.82009372040595</v>
+        <v>17.48782504455932</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>18.8892993436303</v>
+        <v>18.53709454723287</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>20.07932520227903</v>
+        <v>19.70493150370857</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>22.56916152736165</v>
+        <v>22.14834301016845</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>25.4354450413365</v>
+        <v>24.96118257245977</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>27.54658697976751</v>
+        <v>27.03296072597401</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>31.07255011317773</v>
+        <v>30.49317969889866</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>38.99605039203808</v>
+        <v>38.26894052211784</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>47.02923677279782</v>
+        <v>46.15234226967402</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>53.23709602680719</v>
+        <v>52.24445144927104</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>59.09317658975595</v>
+        <v>57.99134110869083</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>64.29337612965453</v>
+        <v>63.09457912625567</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>66.99369792710004</v>
+        <v>65.74455144955843</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>70.07540803174663</v>
+        <v>68.7688008162381</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>72.87842435301647</v>
+        <v>71.5195528488876</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>76.08507502454921</v>
+        <v>74.66641317423867</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>78.74805265040844</v>
+        <v>77.27973763533703</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>81.26799033522154</v>
+        <v>79.75268923966784</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>83.2184221032668</v>
+        <v>81.66675378141983</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>85.29888265584846</v>
+        <v>83.70842262595532</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>87.17545807427713</v>
+        <v>85.55000792372634</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>89.26766906805979</v>
+        <v>87.60320811389577</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>92.57057282357799</v>
+        <v>90.84452681410991</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>95.16254886263818</v>
+        <v>93.38817356490499</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>96.58998709557774</v>
+        <v>94.78899616837856</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>98.13542688910698</v>
+        <v>96.30562010707261</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>100</v>
+        <v>98.13542688910698</v>
       </c>
     </row>
     <row r="118" spans="1:2">

--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7824781957660532</v>
+        <v>0.7663841290558794</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.8129948454009298</v>
+        <v>0.7962731100890593</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.8447016443715686</v>
+        <v>0.8273277613825351</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.8725767986358303</v>
+        <v>0.8546295775081586</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9266765601512463</v>
+        <v>0.9076166113136591</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.9655358150246341</v>
+        <v>0.9456766062924915</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.9952339454243565</v>
+        <v>0.9747639034518669</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.015604149569605</v>
+        <v>0.9947151318017675</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.017655811473772</v>
+        <v>0.9967245949792081</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.029349542986322</v>
+        <v>1.008177808997377</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.053635882274766</v>
+        <v>1.031964625146685</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.070688584334677</v>
+        <v>1.048666586028086</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.083510081220929</v>
+        <v>1.061224369462222</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.100693467599004</v>
+        <v>1.078054326737516</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.123447179304642</v>
+        <v>1.100340038496221</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.150119946974061</v>
+        <v>1.126464198799276</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -884,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.180665179673757</v>
+        <v>1.156381174998782</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.197604776283574</v>
+        <v>1.172972356790963</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -900,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.211881105113736</v>
+        <v>1.186955049082993</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.232874112937394</v>
+        <v>1.207516271241326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.25017451840424</v>
+        <v>1.224460840748521</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -924,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.273903389182994</v>
+        <v>1.247701654439759</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.293199620219454</v>
+        <v>1.266600999235508</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -940,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.310982187672445</v>
+        <v>1.284017813587115</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.352172906920146</v>
+        <v>1.324361319216597</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.37593536651139</v>
+        <v>1.347635030863261</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.409219712696421</v>
+        <v>1.380234782268776</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -972,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.442210427649437</v>
+        <v>1.412546941870163</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -980,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.481713038190589</v>
+        <v>1.451237059932016</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.512464137805723</v>
+        <v>1.481355668761726</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.5689800236422</v>
+        <v>1.536709131872869</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.617643711920075</v>
+        <v>1.584371901978526</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.680560975316423</v>
+        <v>1.645995078664469</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.790373638538067</v>
+        <v>1.75354910728508</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.886903551674045</v>
+        <v>1.848093586360475</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.946404507784291</v>
+        <v>1.906370722609492</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.996423667173777</v>
+        <v>1.955361084401349</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.054444548513072</v>
+        <v>2.012188588161677</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.131807168312242</v>
+        <v>2.087960008141275</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.231565941490257</v>
+        <v>2.185666935837666</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.308436647712558</v>
+        <v>2.260956559953534</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.379053333746051</v>
+        <v>2.330120797008866</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.443716131883242</v>
+        <v>2.393453606154008</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.497425726609352</v>
+        <v>2.446058498148239</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.596173584881587</v>
+        <v>2.542775303507921</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.748975594085774</v>
+        <v>2.692434470211336</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.839512612962511</v>
+        <v>2.781109317299227</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2.960320736488393</v>
+        <v>2.899432650821149</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.071146481635989</v>
+        <v>3.007978924227217</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.140336184892516</v>
+        <v>3.075745528787968</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.203570916742654</v>
+        <v>3.137679644214156</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.310681305821749</v>
+        <v>3.242586979257344</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.360228054815816</v>
+        <v>3.291114647224109</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.412067511141756</v>
+        <v>3.341887865956665</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.488618581890107</v>
+        <v>3.416864428883552</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.55609525570821</v>
+        <v>3.48295323771617</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.652113752085838</v>
+        <v>3.576996818889164</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3.755670228098535</v>
+        <v>3.678423338000523</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.896919852816735</v>
+        <v>3.816767730476723</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>4.020051021956763</v>
+        <v>3.93736632904678</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.181076872677418</v>
+        <v>4.095080188714415</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.350369905317774</v>
+        <v>4.260891190321032</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.505879606214931</v>
+        <v>4.413202356723732</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4.72264880008415</v>
+        <v>4.62551302652708</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>4.915346733988969</v>
+        <v>4.814247535738461</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>5.078682628202776</v>
+        <v>4.974223925761778</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.23990784477837</v>
+        <v>5.132133050713388</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.396949628930365</v>
+        <v>5.2859447883745</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>5.530172610966892</v>
+        <v>5.416427630721734</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5.726316106929988</v>
+        <v>5.608536833427999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>5.927669119363601</v>
+        <v>5.805748402902644</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>6.077607411423109</v>
+        <v>5.952602753597559</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.310985731327361</v>
+        <v>6.181180931760391</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.55557946408234</v>
+        <v>6.420743843371537</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6.863322331391032</v>
+        <v>6.722157033683674</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.32514141575942</v>
+        <v>7.174477390557707</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.768116092795215</v>
+        <v>7.608340933198054</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>8.160423671412971</v>
+        <v>7.992579501873624</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>8.592536159884485</v>
+        <v>8.415804270210073</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>9.228916302908216</v>
+        <v>9.039095301575136</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>9.872202739189525</v>
+        <v>9.669150577071033</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>10.48087536241608</v>
+        <v>10.26530397886002</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>11.14613321612451</v>
+        <v>10.91687876211999</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>11.69409351897014</v>
+        <v>11.45356857881502</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.29336994277247</v>
+        <v>12.04051904287215</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>13.03439873997066</v>
+        <v>12.76630630751289</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>13.89828241123815</v>
+        <v>13.61242155850945</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>14.96500892130093</v>
+        <v>14.65720756248867</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>16.22247221202159</v>
+        <v>15.8888072595706</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17.48782504455932</v>
+        <v>17.12813422581716</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>18.53709454723287</v>
+        <v>18.15582227936617</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>19.70493150370857</v>
+        <v>19.29963908296627</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>22.14834301016845</v>
+        <v>21.69279432925411</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>24.96118257245977</v>
+        <v>24.44777920906931</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>27.03296072597401</v>
+        <v>26.47694488342214</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>30.49317969889866</v>
+        <v>29.86599382850015</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>38.26894052211784</v>
+        <v>37.48182225476771</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>46.15234226967402</v>
+        <v>45.20307763924977</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>52.24445144927104</v>
+        <v>51.16988388763079</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>57.99134110869083</v>
+        <v>56.79857111527016</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>63.09457912625567</v>
+        <v>61.79684537341397</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>65.74455144955843</v>
+        <v>64.39231287909739</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>68.7688008162381</v>
+        <v>67.35435927153586</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>71.5195528488876</v>
+        <v>70.04853364239726</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>74.66641317423867</v>
+        <v>73.13066912266275</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>77.27973763533703</v>
+        <v>75.69024254195595</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>79.75268923966784</v>
+        <v>78.11233030329858</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>81.66675378141983</v>
+        <v>79.9870262305777</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>83.70842262595532</v>
+        <v>81.98670188634213</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>85.55000792372634</v>
+        <v>83.79040932784166</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>87.60320811389577</v>
+        <v>85.80137915170985</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>90.84452681410991</v>
+        <v>88.97603018032311</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>93.38817356490499</v>
+        <v>91.46735902537216</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>94.78899616837856</v>
+        <v>92.83936941075274</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>96.30562010707261</v>
+        <v>94.32479932132479</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>98.13542688910698</v>
+        <v>96.11697050842996</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>100</v>
+        <v>97.94319294809011</v>
       </c>
     </row>
     <row r="119" spans="1:2">

--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.7663841290558794</v>
+        <v>0.7308815574049341</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.7962731100890593</v>
+        <v>0.7593859381437271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.8273277613825351</v>
+        <v>0.7890019897313347</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.8546295775081586</v>
+        <v>0.8150390553924687</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -788,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.9076166113136591</v>
+        <v>0.8655714768267967</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.9456766062924915</v>
+        <v>0.9018683511360567</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.9747639034518669</v>
+        <v>0.9296081858253974</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -812,7 +812,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.9947151318017675</v>
+        <v>0.9486351780290077</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.9967245949792081</v>
+        <v>0.9505515532786947</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -828,7 +828,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.008177808997377</v>
+        <v>0.9614741997447738</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -836,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.031964625146685</v>
+        <v>0.9841590970094501</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -844,7 +844,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.048666586028086</v>
+        <v>1.000087343326024</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -852,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.061224369462222</v>
+        <v>1.012063390279399</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -860,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.078054326737516</v>
+        <v>1.028113703585834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -868,7 +868,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.100340038496221</v>
+        <v>1.049367034781699</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.126464198799276</v>
+        <v>1.07428099926021</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -884,7 +884,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.156381174998782</v>
+        <v>1.102812078295574</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -892,7 +892,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1.172972356790963</v>
+        <v>1.11863467733921</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -900,7 +900,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.186955049082993</v>
+        <v>1.131969624569527</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -908,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.207516271241326</v>
+        <v>1.151578352756193</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.224460840748521</v>
+        <v>1.167737968908776</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -924,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.247701654439759</v>
+        <v>1.189902157155909</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.266600999235508</v>
+        <v>1.207925994073392</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -940,7 +940,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.284017813587115</v>
+        <v>1.224535978434651</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.324361319216597</v>
+        <v>1.263010580279518</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1.347635030863261</v>
+        <v>1.285206142491724</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -964,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.380234782268776</v>
+        <v>1.316295717777722</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -972,7 +972,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.412546941870163</v>
+        <v>1.34711102388495</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -980,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.451237059932016</v>
+        <v>1.384008830967756</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -988,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.481355668761726</v>
+        <v>1.412732202047279</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -996,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.536709131872869</v>
+        <v>1.465521428484245</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.584371901978526</v>
+        <v>1.510976231531865</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.645995078664469</v>
+        <v>1.569744728478619</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.75354910728508</v>
+        <v>1.672316341020031</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.848093586360475</v>
+        <v>1.762481068460028</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.906370722609492</v>
+        <v>1.818058529537221</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.955361084401349</v>
+        <v>1.864779423886081</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.012188588161677</v>
+        <v>1.918974406372149</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.087960008141275</v>
+        <v>1.991235732438093</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.185666935837666</v>
+        <v>2.084416408781121</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.260956559953534</v>
+        <v>2.156218258067885</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.330120797008866</v>
+        <v>2.222178477465956</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.393453606154008</v>
+        <v>2.282577408534446</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.446058498148239</v>
+        <v>2.332745390790585</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.542775303507921</v>
+        <v>2.424981811990483</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.692434470211336</v>
+        <v>2.567708051604639</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.781109317299227</v>
+        <v>2.652275056432994</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2.899432650821149</v>
+        <v>2.76511708825897</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>3.007978924227217</v>
+        <v>2.868634980070301</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>3.075745528787968</v>
+        <v>2.933262311983375</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>3.137679644214156</v>
+        <v>2.992327343503474</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>3.242586979257344</v>
+        <v>3.092374869949543</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>3.291114647224109</v>
+        <v>3.138654504660237</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>3.341887865956665</v>
+        <v>3.18707566550477</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>3.416864428883552</v>
+        <v>3.258578956091411</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>3.48295323771617</v>
+        <v>3.321606215784441</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>3.576996818889164</v>
+        <v>3.411293249304211</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>3.678423338000523</v>
+        <v>3.508021207830172</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.816767730476723</v>
+        <v>3.63995682757716</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>3.93736632904678</v>
+        <v>3.754968723311902</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>4.095080188714415</v>
+        <v>3.905376524058282</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>4.260891190321032</v>
+        <v>4.063506368472479</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>4.413202356723732</v>
+        <v>4.208761754498943</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>4.62551302652708</v>
+        <v>4.411237180485017</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>4.814247535738461</v>
+        <v>4.591228606192649</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>4.974223925761778</v>
+        <v>4.743794126087093</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.132133050713388</v>
+        <v>4.894388146497278</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>5.2859447883745</v>
+        <v>5.04107459015759</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>5.416427630721734</v>
+        <v>5.165512844309401</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>5.608536833427999</v>
+        <v>5.348722631598116</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>5.805748402902644</v>
+        <v>5.536798419667302</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>5.952602753597559</v>
+        <v>5.676849775740939</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>6.181180931760391</v>
+        <v>5.894839121436605</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>6.420743843371537</v>
+        <v>6.123304335285062</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>6.722157033683674</v>
+        <v>6.410754627645775</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>7.174477390557707</v>
+        <v>6.842121346167612</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>7.608340933198054</v>
+        <v>7.255886258205709</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>7.992579501873624</v>
+        <v>7.622325061987574</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>8.415804270210073</v>
+        <v>8.025944038538082</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>9.039095301575136</v>
+        <v>8.620361253677736</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>9.669150577071033</v>
+        <v>9.221229360866916</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>10.26530397886002</v>
+        <v>9.789766090990168</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>10.91687876211999</v>
+        <v>10.41115681960755</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>11.45356857881502</v>
+        <v>10.92298460178339</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>12.04051904287215</v>
+        <v>11.48274471818625</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>12.76630630751289</v>
+        <v>12.17491005174916</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>13.61242155850945</v>
+        <v>12.98182920488228</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>14.65720756248867</v>
+        <v>13.97821573324623</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>15.8888072595706</v>
+        <v>15.15276185258145</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>17.12813422581716</v>
+        <v>16.33467727708285</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>18.15582227936617</v>
+        <v>17.31475791370781</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>19.29963908296627</v>
+        <v>18.40558766227143</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>21.69279432925411</v>
+        <v>20.68788053239311</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>24.44777920906931</v>
+        <v>23.31524136000697</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>26.47694488342214</v>
+        <v>25.25040639288762</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>29.86599382850015</v>
+        <v>28.48245841117721</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>37.48182225476771</v>
+        <v>35.74548530602741</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>45.20307763924977</v>
+        <v>43.10905527906899</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>51.16988388763079</v>
+        <v>48.79945057590614</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>56.79857111527016</v>
+        <v>54.16739013925582</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1556,7 +1556,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>61.79684537341397</v>
+        <v>58.93412047151035</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1564,7 +1564,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>64.39231287909739</v>
+        <v>61.40935353131382</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1572,7 +1572,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>67.35435927153586</v>
+        <v>64.23418379375424</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1580,7 +1580,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>70.04853364239726</v>
+        <v>66.80355114550439</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1588,7 +1588,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>73.13066912266275</v>
+        <v>69.7429073959066</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1596,7 +1596,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>75.69024254195595</v>
+        <v>72.18390915476334</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1604,7 +1604,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>78.11233030329858</v>
+        <v>74.4937942477158</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1612,7 +1612,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>79.9870262305777</v>
+        <v>76.28164530966093</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1620,7 +1620,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>81.98670188634213</v>
+        <v>78.18868644240244</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1628,7 +1628,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>83.79040932784166</v>
+        <v>79.9088375441353</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1636,7 +1636,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>85.80137915170985</v>
+        <v>81.82664964519455</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1644,7 +1644,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>88.97603018032311</v>
+        <v>84.85423568206674</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1652,7 +1652,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>91.46735902537216</v>
+        <v>87.23015428116462</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1660,7 +1660,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>92.83936941075274</v>
+        <v>88.53860659538208</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1668,7 +1668,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>94.32479932132479</v>
+        <v>89.95522430090818</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1676,7 +1676,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>96.11697050842996</v>
+        <v>91.66437356262543</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1684,7 +1684,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>97.94319294809011</v>
+        <v>93.40599666031531</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1692,7 +1692,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>100</v>
+        <v>95.36752259018192</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1700,7 +1700,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>100</v>
+        <v>97.5609756097561</v>
       </c>
     </row>
     <row r="121" spans="1:2">

--- a/ipc_mensual.xlsx
+++ b/ipc_mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>periodo</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ipc</t>
   </si>
   <si>
+    <t>periodo2</t>
+  </si>
+  <si>
     <t>01-2016</t>
   </si>
   <si>
@@ -380,12 +383,54 @@
   </si>
   <si>
     <t>12-2025</t>
+  </si>
+  <si>
+    <t>01-2026</t>
+  </si>
+  <si>
+    <t>02-2026</t>
+  </si>
+  <si>
+    <t>03-2026</t>
+  </si>
+  <si>
+    <t>04-2026</t>
+  </si>
+  <si>
+    <t>05-2026</t>
+  </si>
+  <si>
+    <t>06-2026</t>
+  </si>
+  <si>
+    <t>07-2026</t>
+  </si>
+  <si>
+    <t>08-2026</t>
+  </si>
+  <si>
+    <t>09-2026</t>
+  </si>
+  <si>
+    <t>10-2026</t>
+  </si>
+  <si>
+    <t>11-2026</t>
+  </si>
+  <si>
+    <t>12-2026</t>
+  </si>
+  <si>
+    <t>01-2027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -438,11 +483,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,978 +783,1484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.7308815574049341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.7109742776312586</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7593859381437271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.7387022744588783</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.7890019897313347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.7675116631627767</v>
+      </c>
+      <c r="C4" s="2">
+        <v>42430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8150390553924687</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.7928395480471483</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.8655714768267967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.8419956000260665</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9018683511360567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.8773038435175646</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9296081858253974</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.9042881185071956</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9486351780290077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.9227968657869721</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.9505515532786947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.9246610440454225</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.9614741997447738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.9352861865221531</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9841590970094501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.9573532072076359</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>1.000087343326024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.9728476102393225</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>1.012063390279399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.9844974613612827</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>1.028113703585834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>1.000110606601006</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>1.049367034781699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1.02078505328959</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>1.07428099926021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1.045020427295924</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>1.102812078295574</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>1.072774395229157</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>1.11863467733921</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1.088166028540087</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>1.131969624569527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1.101137767090979</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>1.151578352756193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1.120212405404857</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>1.167737968908776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1.135931876370404</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>1.189902157155909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1.15749237077423</v>
+      </c>
+      <c r="C23" s="2">
+        <v>43009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>1.207925994073392</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1.175025286063611</v>
+      </c>
+      <c r="C24" s="2">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>1.224535978434651</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1.191182858399466</v>
+      </c>
+      <c r="C25" s="2">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>1.263010580279518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1.228609513890581</v>
+      </c>
+      <c r="C26" s="2">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>1.285206142491724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>1.250200527715685</v>
+      </c>
+      <c r="C27" s="2">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>1.316295717777722</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1.280443305231247</v>
+      </c>
+      <c r="C28" s="2">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>1.34711102388495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1.310419283934776</v>
+      </c>
+      <c r="C29" s="2">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>1.384008830967756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1.346312092381085</v>
+      </c>
+      <c r="C30" s="2">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>1.412732202047279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1.374253114831983</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>1.465521428484245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.42560450241658</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1.510976231531865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1.469821236898701</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>1.569744728478619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1.526989035485037</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43344</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>1.672316341020031</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1.626766868696527</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>1.762481068460028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.714475747529209</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>1.818058529537221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>1.768539425619863</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>1.864779423886081</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1.813987766426148</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43466</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>1.918974406372149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.866706620984579</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>1.991235732438093</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.93699973972577</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>2.084416408781121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>2.027642420993307</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>2.156218258067885</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>2.097488577887046</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>2.222178477465956</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>2.161652215433808</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>2.282577408534446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>2.220406039430394</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>2.332745390790585</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>2.269207578590062</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>2.424981811990483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>2.35893172372615</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>2.567708051604639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>2.497770478214628</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>2.652275056432994</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>2.580034101588515</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>2.76511708825897</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>2.689802615037908</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>2.868634980070301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>2.790500953375779</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>2.933262311983375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>2.853368007765929</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>2.992327343503474</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>2.910824264108438</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>3.092374869949543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>3.008146760651306</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>3.138654504660237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>3.053165860564433</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>3.18707566550477</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>3.100268157105807</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>3.258578956091411</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>3.169823887248454</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>3.321606215784441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>3.23113445115218</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>3.411293249304211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>3.318378647183085</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>3.508021207830172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>3.412471992052697</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>3.63995682757716</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>3.540814034608133</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>3.754968723311902</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>3.652693310614691</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>3.905376524058282</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>3.799004400834906</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>4.063506368472479</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>3.952827206685292</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>4.208761754498943</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>4.094126220329713</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>4.411237180485017</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>4.291086751444571</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>4.591228606192649</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>4.466175686957832</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>4.743794126087093</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>4.614585725765657</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>4.894388146497278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>4.761077963518756</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>5.04107459015759</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>4.903769056573535</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>5.165512844309401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>5.024817941935217</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>5.348722631598116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>5.203037579375601</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>5.536798419667302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>5.385990680610218</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>5.676849775740939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>5.522227408308308</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>5.894839121436605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>5.734279301008373</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>6.123304335285062</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>5.956521726930996</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>6.410754627645775</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>6.23614263389667</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>6.842121346167612</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>6.655760064365382</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>7.255886258205709</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>7.058255114986099</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>7.622325061987574</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>7.414713095318652</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>8.025944038538082</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>7.807338558889185</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.620361253677736</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>8.385565421865502</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>9.221229360866916</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>8.970067471660427</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>9.789766090990168</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>9.52311876555464</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>10.41115681960755</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>10.12758445487116</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>10.92298460178339</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>10.62547140251303</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>11.48274471818625</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>11.16998513442242</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>12.17491005174916</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>11.8432977157093</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>12.98182920488228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>12.62823852615008</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>13.97821573324623</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>13.59748612183485</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>15.15276185258145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>14.74004071262787</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>16.33467727708285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>15.88976388821289</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>17.31475791370781</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>16.84314972150565</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>18.40558766227143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>17.90426815396053</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>20.68788053239311</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>20.12439740505166</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>23.31524136000697</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>22.68019587549315</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
-        <v>25.25040639288762</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>24.56265213315915</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>28.48245841117721</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>27.7066716062035</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>35.74548530602741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>34.77187286578541</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>43.10905527906899</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>41.93487867613715</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>47.47028266138729</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>52.69201375413989</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>57.32891096450422</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>59.73672522501344</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>62.48461458536404</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>64.98399916877858</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>67.84329513220486</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>70.21781046183204</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>72.46478039661071</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>74.20393512612931</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>76.05903350428254</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>77.73233224137675</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>79.5979082151698</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>82.54303081913108</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>84.85423568206674</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>86.12704921729774</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>87.50508200477451</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>89.16767856286522</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>90.86186445555965</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>92.76996360912639</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>94.90367277213629</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>97.27626459143968</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>48.79945057590614</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101">
-        <v>54.16739013925582</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102">
-        <v>58.93412047151035</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103">
-        <v>61.40935353131382</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104">
-        <v>64.23418379375424</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105">
-        <v>66.80355114550439</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106">
-        <v>69.7429073959066</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107">
-        <v>72.18390915476334</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <v>74.4937942477158</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>76.28164530966093</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>78.18868644240244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>79.9088375441353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>81.82664964519455</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>84.85423568206674</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>87.23015428116462</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>88.53860659538208</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>89.95522430090818</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>91.66437356262543</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>93.40599666031531</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>95.36752259018192</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>97.5609756097561</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
+      <c r="C122" s="2">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
         <v>100</v>
+      </c>
+      <c r="C123" s="2">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>100</v>
+      </c>
+      <c r="C124" s="2">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>100</v>
+      </c>
+      <c r="C125" s="2">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+      <c r="C126" s="2">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127" s="2">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128" s="2">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>100</v>
+      </c>
+      <c r="C129" s="2">
+        <v>46235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>100</v>
+      </c>
+      <c r="C130" s="2">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>100</v>
+      </c>
+      <c r="C131" s="2">
+        <v>46296</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>100</v>
+      </c>
+      <c r="C132" s="2">
+        <v>46327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>100</v>
+      </c>
+      <c r="C133" s="2">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>100</v>
+      </c>
+      <c r="C134" s="2">
+        <v>46388</v>
       </c>
     </row>
   </sheetData>
